--- a/PCB_Board/Control_Board/Project Outputs for Control_Board/Control_Board.xlsx
+++ b/PCB_Board/Control_Board/Project Outputs for Control_Board/Control_Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\Bearing Vibration Analysis Setup\Bearing_Vibration_Analysis_Setup\PCB_Board\Control_Board\Project Outputs for Control_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0FF5ED-DAC2-4B36-AB64-E8B9D2DEFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E153D230-9694-43A1-ADA9-B18547C532F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36195" yWindow="4455" windowWidth="17280" windowHeight="8970" xr2:uid="{8E05895D-4F4C-4B76-AC20-4B2258423ECE}"/>
+    <workbookView xWindow="39105" yWindow="5130" windowWidth="17280" windowHeight="8970" xr2:uid="{FFF8CE4D-8162-45B1-9634-71597A1081F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_Board" sheetId="1" r:id="rId1"/>
@@ -39,39 +39,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer Product Number</t>
-  </si>
-  <si>
-    <t>LTST-C191KGKT</t>
-  </si>
-  <si>
-    <t>Green 571nm LED Indication - Discrete 2V 0603 _1608 Metric_</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
+    <t>RF18N0R1B500CT</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
   <si>
     <t>0603</t>
@@ -86,79 +68,31 @@
     <t>CONN_73137-5003_MOL</t>
   </si>
   <si>
-    <t>731375003</t>
-  </si>
-  <si>
     <t>61800925023</t>
   </si>
   <si>
-    <t>Male PCB Connector WR-DSUB, Vertical, 9 pins</t>
-  </si>
-  <si>
     <t>J2, J5</t>
   </si>
   <si>
-    <t>CMP-1502-00276-1</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik</t>
-  </si>
-  <si>
-    <t>RT0603BRE072KL</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>R1, R3</t>
-  </si>
-  <si>
-    <t>RESC1608X55X25LL10T15</t>
-  </si>
-  <si>
-    <t>CMP-2000-04536-1</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>ALSR017K000JE12</t>
-  </si>
-  <si>
-    <t>7 kOhms ±5% 1W Through Hole Resistor Axial Moisture Resistant Wirewound</t>
+    <t>ERJ3EKF4021V</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>ERJ3EKF2051V</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>Thru Hole Resistor</t>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>RSF100JB-73-2K</t>
-  </si>
-  <si>
-    <t>2 kOhms ±5% 1W Through Hole Resistor Axial Flame Proof, Safety Metal Oxide Film</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
-    <t>MAX4080FASA+T</t>
-  </si>
-  <si>
-    <t>Current Sense Amplifier 1 Circuit - 8-SOIC</t>
+    <t>OPA445ADDAR</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>8-SOIC (0.154", 3.90mm Width)</t>
+    <t>VREG_LM5017MR/NOPB</t>
   </si>
 </sst>
 </file>
@@ -215,9 +149,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -534,208 +467,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B48585-11A6-4420-B0FD-E08CBED76974}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C793EFA-CE7C-4D3D-8272-791E6F5F5659}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
